--- a/data/Ledger 26.xlsx
+++ b/data/Ledger 26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannelson/Desktop/LionsFin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC0403-3EEE-D747-8FFE-4B78D37200E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E67EF-E3F3-BC4F-B2F6-8F607D01913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2120" windowWidth="23040" windowHeight="16440" xr2:uid="{254E1F4E-7E9E-BF4D-B5B5-C1B5F03758AB}"/>
+    <workbookView xWindow="46260" yWindow="5160" windowWidth="23040" windowHeight="16440" xr2:uid="{254E1F4E-7E9E-BF4D-B5B5-C1B5F03758AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger 24-25" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>CampStix</t>
   </si>
@@ -277,6 +277,33 @@
   </si>
   <si>
     <t>Ponderosa 4H</t>
+  </si>
+  <si>
+    <t>Tony Maffey</t>
+  </si>
+  <si>
+    <t>CVB -  hotdog sales</t>
+  </si>
+  <si>
+    <t>cvb- donations</t>
+  </si>
+  <si>
+    <t>Dan's Food Market</t>
+  </si>
+  <si>
+    <t>4H den rental</t>
+  </si>
+  <si>
+    <t>breakfast revenue</t>
+  </si>
+  <si>
+    <t>breakfast donations</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>breakfast May to June</t>
   </si>
 </sst>
 </file>
@@ -692,7 +719,7 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,6 +810,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="8">
@@ -806,81 +834,281 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45849</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4283</v>
+      </c>
+      <c r="E5" s="3">
+        <f>219.17-15</f>
+        <v>204.17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>320</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>VLOOKUP(F5,Accounts!$A$2:$B$69,2)</f>
+        <v>SwimTeamFundraiser (hot dogs)</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45849</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4283</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>340</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>VLOOKUP(F6,Accounts!$A$2:$B$69,2)</f>
+        <v>YouthExchange</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45849</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f>1066.79-97.79</f>
+        <v>969</v>
+      </c>
+      <c r="F7" s="9">
+        <v>325</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>VLOOKUP(F7,Accounts!$A$2:$B$69,2)</f>
+        <v>SwimTeamFundraiser (hot dogs)_inc</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45849</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>97.79</v>
+      </c>
+      <c r="F8" s="9">
+        <v>185</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>VLOOKUP(F8,Accounts!$A$2:$B$69,2)</f>
+        <v>Donations_inc</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45850</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4284</v>
+      </c>
+      <c r="E9" s="3">
+        <v>161.97999999999999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>VLOOKUP(F9,Accounts!$A$2:$B$69,2)</f>
+        <v>Breakfast 25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45852</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>120</v>
+      </c>
+      <c r="F10" s="9">
+        <v>345</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>VLOOKUP(F10,Accounts!$A$2:$B$69,2)</f>
+        <v>YouthExchange_inc</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45852</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F11" s="9">
+        <v>75</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>VLOOKUP(F11,Accounts!$A$2:$B$69,2)</f>
+        <v>Breakfast 25_inc</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45852</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41.75</v>
+      </c>
+      <c r="F12" s="9">
+        <v>185</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>VLOOKUP(F12,Accounts!$A$2:$B$69,2)</f>
+        <v>Donations_inc</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4356</v>
+      </c>
+      <c r="F13" s="9">
+        <v>75</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>VLOOKUP(F13,Accounts!$A$2:$B$69,2)</f>
+        <v>Breakfast 25_inc</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2452.9</v>
+      </c>
+      <c r="F14" s="9">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>VLOOKUP(F14,Accounts!$A$2:$B$69,2)</f>
+        <v>Breakfast 25</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45852</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4285</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41.32</v>
+      </c>
+      <c r="F15" s="9">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>VLOOKUP(F15,Accounts!$A$2:$B$69,2)</f>
+        <v>Breakfast 25</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
@@ -1470,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476E2D9-C9D7-D44E-B4FD-CFB529DC340A}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:XFD61"/>
     </sheetView>
   </sheetViews>
